--- a/notebooks/modeling_test_results_no_rl.xlsx
+++ b/notebooks/modeling_test_results_no_rl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielfurman/Desktop/Berkeley/Semester-3/Deep RL/final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1284F8CC-A721-5F45-B39F-6752CF5A6208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB89F57-876B-3647-B88B-DC46A2E58274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35440" yWindow="3720" windowWidth="29800" windowHeight="16300" xr2:uid="{0408B4BF-A883-6543-B599-0A19C2AF77EA}"/>
+    <workbookView xWindow="49040" yWindow="1540" windowWidth="29800" windowHeight="16300" xr2:uid="{0408B4BF-A883-6543-B599-0A19C2AF77EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>acc / r^2</t>
   </si>
@@ -214,13 +214,19 @@
   </si>
   <si>
     <t>PlasticFlakes_all_bands</t>
+  </si>
+  <si>
+    <t>corr_min</t>
+  </si>
+  <si>
+    <t>mi_min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,13 +236,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,11 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,19 +578,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901836E3-682F-6A45-9B13-009A42A2E2B7}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,232 +606,170 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
+      <c r="B10" s="1">
+        <v>0.92061703271905704</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.84940453582840203</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.84964490702794404</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.92809325017280797</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.57560942628738399</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.95879241897256695</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.93164081247091002</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.93150673330018796</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.92200371330180197</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.59682690984028497</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>0.97136170408265299</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>0.95481212470856203</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>0.95303161503403</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>0.95428880567265395</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.61726855750194398</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
+      <c r="B21" s="1">
+        <v>0.90664519137032096</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.52835397001129303</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.52031191167318203</v>
+      </c>
+      <c r="E21" s="1">
         <v>0.12688449348486999</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>0.13941266389354701</v>
       </c>
     </row>
@@ -842,129 +777,99 @@
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.92437601548481896</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.61572603576182505</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.631497979242156</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>8.9767223389436102E-2</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="1">
+        <v>8.2078420763225607E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>0.93481710676895602</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>0.67895921140430704</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>0.70629778831432399</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>8.8251640768030104E-2</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="1">
+        <v>8.1995216905506499E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
+      <c r="B32" s="1">
+        <v>0.25723577235772299</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.2289096007530399E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>6.20204711143185E-2</v>
+      </c>
+      <c r="E32" s="1">
         <v>0.58392407237632504</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>0.34537539600561201</v>
       </c>
     </row>
@@ -972,19 +877,19 @@
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>0.24813008130081299</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>7.2619588331532897E-2</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>4.4606493290636401E-2</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.53233830202394805</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0.252244709849199</v>
       </c>
     </row>
@@ -992,19 +897,19 @@
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>0.26504065040650399</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>8.5746919435168295E-2</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>6.4771412450172205E-2</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>0.55662903383749696</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>0.26176094587599003</v>
       </c>
     </row>
@@ -1012,93 +917,59 @@
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
+      <c r="B43" s="1">
+        <v>0.68263509895899699</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.71485203438136</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4.4782855389397804</v>
+      </c>
+      <c r="E43" s="1">
         <v>0.96444509084465802</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>0.71749106396235895</v>
       </c>
     </row>
@@ -1106,19 +977,19 @@
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>0.77254633229990299</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>1.3534796168419101</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>3.20956245476104</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="1">
         <v>0.94615672571590903</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>0.63647860750151997</v>
       </c>
     </row>
@@ -1126,19 +997,19 @@
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>0.84357007005717899</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>1.1874092003943799</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>2.2073578105910001</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>0.97843094892045701</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>0.657343914470914</v>
       </c>
     </row>
@@ -1146,90 +1017,59 @@
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E54">
+      <c r="B54" s="1">
+        <v>0.99444444444444402</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.99444444444444402</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.99443262782291297</v>
+      </c>
+      <c r="E54" s="1">
         <v>0.76666881071346904</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>0.64141097164791505</v>
       </c>
     </row>
@@ -1237,19 +1077,19 @@
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>0.99861111111111101</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>0.99861111111111101</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>0.99861108699803802</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>0.57640807908695102</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>0.58613282681002499</v>
       </c>
     </row>
@@ -1257,19 +1097,19 @@
       <c r="A56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>0.59409024192656401</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>0.60661307245679297</v>
       </c>
     </row>
